--- a/TRenesas_MCU_35H/IC_stock.xlsx
+++ b/TRenesas_MCU_35H/IC_stock.xlsx
@@ -29,6 +29,42 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGNTIzMTVBR0ZMIzEw" sheetId="21" state="visible" r:id="rId21"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGNTExMThBREZNIzFB" sheetId="22" state="visible" r:id="rId22"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ukw3OC9HMjI=" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGMTAyNzlETkEjVzA=" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGNTY0TUdIR0ZCI1Yx" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGMTBCTEVMRkIjSDU=" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGMTAzNkFBU00jMTU=" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjdGUzVEOTdFM0EwMUNMSyNBQzA=" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGMTAyNkFBU1AjVjA=" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGMTA0TERHRkEjWDA=" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGNTEzMDhBREZNIzMw" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGNTYzMERERExDI1Uw" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGNTcxTUxHREZDI1Yw" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjdGUzVEOTdFM0EwMUNGQiNCQTA=" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGMTFZNjdEU00jNTA=" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGNTY0TUZHR0ZQI1Yx" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGMTA5TEJDSkZCIzEw" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGMTA0TUZHRkEjMzA=" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjdGQTZNMkFGM0NMSyNBQzA=" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGMTAwTUdHRkIjMzA=" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjdTOTIxMDQ1VkNCRyNBQzA=" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGMTA0TEpHRkIjMzA=" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGMTFDQ0NNQkcjVTA=" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGMTAwR0VHRkIjMzA=" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGNTY1TjlCREZQIzMw" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGNTYzMU5EREZNI1Yw" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGNTYzMEJDREZDI1Yw" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGMTFZNjhEU00jMTA=" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGMTBCTUdZRkIjSDU=" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGMTBEUEZDSkZCIzU2Rw==" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGNTExMTdBRE5FIzBB" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGNTcxTUpDREZDIzEw" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGMTA0R0hHRkIjMzA=" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGMTA0TUZBRkIjVjA=" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGMTBQR0hDTEZCIzU1" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGNTYzMEVDRExDI1Uw" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGMTA0TENBTEEjVTA=" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjdGMTAwR01MM0NGQiNBQTA=" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UjVGMTA0UEZERkEjWDA=" sheetId="59" state="visible" r:id="rId59"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1149,6 +1185,114 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1167,6 +1311,234 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市荣利万佳电子有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>R5F51308ADFM#30</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1185,6 +1557,282 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市荣利万佳电子有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>R5F100MGGFB#30</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>1042</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市荣利万佳电子有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>R5F104LJGFB#30</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>740</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1203,6 +1851,329 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市荣利万佳电子有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>R5F104GHGFB#30</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市道合微科技有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>R5F104MFAFB#V0</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>8874</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>深圳市壮越微电子有限公司</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>R5F104MFAFB#V0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>5056</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
